--- a/做事 Doing/20180111 Total assets.xlsx
+++ b/做事 Doing/20180111 Total assets.xlsx
@@ -251,24 +251,30 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>Sheet1!$K$2:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>92607.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92704.140000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,14 +299,32 @@
               <a:srgbClr val="C00000"/>
             </a:solidFill>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20180117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$N$2:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>133915.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133970.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,38 +351,56 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20180117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$J$2:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>35903.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35935.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68469888"/>
-        <c:axId val="68471424"/>
+        <c:axId val="112335104"/>
+        <c:axId val="112349184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68469888"/>
+        <c:axId val="112335104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68471424"/>
+        <c:crossAx val="112349184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68471424"/>
+        <c:axId val="112349184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,7 +408,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68469888"/>
+        <c:crossAx val="112335104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -389,7 +431,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -399,16 +441,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -715,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -838,6 +880,57 @@
         <v>-41308.729999999996</v>
       </c>
       <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>20180118</v>
+      </c>
+      <c r="B3">
+        <v>49743.97</v>
+      </c>
+      <c r="C3">
+        <v>1362.23</v>
+      </c>
+      <c r="D3">
+        <v>4469.8</v>
+      </c>
+      <c r="E3">
+        <v>172.27</v>
+      </c>
+      <c r="F3">
+        <v>50.54</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>970</v>
+      </c>
+      <c r="I3">
+        <f>B3+C3+D3+E3+F3+G3+H3</f>
+        <v>56768.810000000005</v>
+      </c>
+      <c r="J3">
+        <v>35935.33</v>
+      </c>
+      <c r="K3">
+        <f>I3+J3</f>
+        <v>92704.140000000014</v>
+      </c>
+      <c r="L3">
+        <v>114400.08</v>
+      </c>
+      <c r="M3">
+        <v>19570.73</v>
+      </c>
+      <c r="N3">
+        <f>L3+M3</f>
+        <v>133970.81</v>
+      </c>
+      <c r="O3">
+        <f>K3-N3</f>
+        <v>-41266.669999999984</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/做事 Doing/20180111 Total assets.xlsx
+++ b/做事 Doing/20180111 Total assets.xlsx
@@ -251,30 +251,36 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20180118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$3</c:f>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>92607.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>92704.140000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91448.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,30 +307,36 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20180118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$3</c:f>
+              <c:f>Sheet1!$N$2:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>133915.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>133970.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133968.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,54 +365,60 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20180118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$3</c:f>
+              <c:f>Sheet1!$J$2:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>35903.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35935.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36052.730000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="112335104"/>
-        <c:axId val="112349184"/>
+        <c:axId val="113121536"/>
+        <c:axId val="113135616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112335104"/>
+        <c:axId val="113121536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112349184"/>
+        <c:crossAx val="113135616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112349184"/>
+        <c:axId val="113135616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +426,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112335104"/>
+        <c:crossAx val="113121536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -431,7 +449,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -757,11 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -930,6 +948,57 @@
       <c r="O3">
         <f>K3-N3</f>
         <v>-41266.669999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>20180119</v>
+      </c>
+      <c r="B4">
+        <v>44748.66</v>
+      </c>
+      <c r="C4">
+        <v>4984.2299999999996</v>
+      </c>
+      <c r="D4">
+        <v>4470.26</v>
+      </c>
+      <c r="E4">
+        <v>172.27</v>
+      </c>
+      <c r="F4">
+        <v>50.54</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>970</v>
+      </c>
+      <c r="I4">
+        <f>B4+C4+D4+E4+F4+G4+H4</f>
+        <v>55395.96</v>
+      </c>
+      <c r="J4">
+        <v>36052.730000000003</v>
+      </c>
+      <c r="K4">
+        <f>I4+J4</f>
+        <v>91448.69</v>
+      </c>
+      <c r="L4">
+        <v>114400.08</v>
+      </c>
+      <c r="M4">
+        <v>19568.509999999998</v>
+      </c>
+      <c r="N4">
+        <f>L4+M4</f>
+        <v>133968.59</v>
+      </c>
+      <c r="O4">
+        <f>K4-N4</f>
+        <v>-42519.899999999994</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Total assets.xlsx
+++ b/做事 Doing/20180111 Total assets.xlsx
@@ -251,10 +251,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -263,16 +263,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20180119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:f>Sheet1!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>92607.2</c:v>
                 </c:pt>
@@ -281,6 +284,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>91448.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89728.359999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,10 +313,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -319,16 +325,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20180119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$4</c:f>
+              <c:f>Sheet1!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>133915.93</c:v>
                 </c:pt>
@@ -337,6 +346,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>133968.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133461.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,10 +377,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -377,16 +389,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20180119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:f>Sheet1!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>35903.53</c:v>
                 </c:pt>
@@ -394,31 +409,34 @@
                   <c:v>35935.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>36052.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>36052.730000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113121536"/>
-        <c:axId val="113135616"/>
+        <c:axId val="126294272"/>
+        <c:axId val="126308352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113121536"/>
+        <c:axId val="126294272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113135616"/>
+        <c:crossAx val="126308352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113135616"/>
+        <c:axId val="126308352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +444,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113121536"/>
+        <c:crossAx val="126294272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -449,7 +467,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -775,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -999,6 +1017,57 @@
       <c r="O4">
         <f>K4-N4</f>
         <v>-42519.899999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>20180120</v>
+      </c>
+      <c r="B5">
+        <v>37053.339999999997</v>
+      </c>
+      <c r="C5">
+        <v>10958.73</v>
+      </c>
+      <c r="D5">
+        <v>4470.75</v>
+      </c>
+      <c r="E5">
+        <v>172.27</v>
+      </c>
+      <c r="F5">
+        <v>50.54</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>970</v>
+      </c>
+      <c r="I5">
+        <f>B5+C5+D5+E5+F5+G5+H5</f>
+        <v>53675.62999999999</v>
+      </c>
+      <c r="J5">
+        <v>36052.730000000003</v>
+      </c>
+      <c r="K5">
+        <f>I5+J5</f>
+        <v>89728.359999999986</v>
+      </c>
+      <c r="L5">
+        <v>114400.08</v>
+      </c>
+      <c r="M5">
+        <v>19061.009999999998</v>
+      </c>
+      <c r="N5">
+        <f>L5+M5</f>
+        <v>133461.09</v>
+      </c>
+      <c r="O5">
+        <f>K5-N5</f>
+        <v>-43732.73000000001</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Total assets.xlsx
+++ b/做事 Doing/20180111 Total assets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21840" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -266,16 +266,31 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20180120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$5</c:f>
+              <c:f>Sheet1!$K$2:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>92607.2</c:v>
                 </c:pt>
@@ -287,6 +302,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>89728.359999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90541.040000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90240.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90672.200000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86332.169999999984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87056.489999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,10 +343,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -328,16 +358,31 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20180120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$5</c:f>
+              <c:f>Sheet1!$N$2:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>133915.93</c:v>
                 </c:pt>
@@ -349,6 +394,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>133461.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133461.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133576.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134357.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134232.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134291.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,10 +437,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -392,16 +452,31 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20180120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:f>Sheet1!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>35903.53</c:v>
                 </c:pt>
@@ -413,30 +488,45 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>36052.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36052.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36037.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36016.730000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36215.129999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36177.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126294272"/>
-        <c:axId val="126308352"/>
+        <c:axId val="76900608"/>
+        <c:axId val="76931072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126294272"/>
+        <c:axId val="76900608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126308352"/>
+        <c:crossAx val="76931072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126308352"/>
+        <c:axId val="76931072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +534,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126294272"/>
+        <c:crossAx val="76900608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -467,7 +557,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -477,16 +567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -793,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1068,6 +1158,261 @@
       <c r="O5">
         <f>K5-N5</f>
         <v>-43732.73000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>20180121</v>
+      </c>
+      <c r="B6">
+        <v>37058.019999999997</v>
+      </c>
+      <c r="C6">
+        <v>1966.73</v>
+      </c>
+      <c r="D6">
+        <v>4470.75</v>
+      </c>
+      <c r="E6">
+        <v>972.27</v>
+      </c>
+      <c r="F6">
+        <v>50.54</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9970</v>
+      </c>
+      <c r="I6">
+        <f>B6+C6+D6+E6+F6+G6+H6</f>
+        <v>54488.31</v>
+      </c>
+      <c r="J6">
+        <v>36052.730000000003</v>
+      </c>
+      <c r="K6">
+        <f>I6+J6</f>
+        <v>90541.040000000008</v>
+      </c>
+      <c r="L6">
+        <v>114400.08</v>
+      </c>
+      <c r="M6">
+        <v>19061.009999999998</v>
+      </c>
+      <c r="N6">
+        <f>L6+M6</f>
+        <v>133461.09</v>
+      </c>
+      <c r="O6">
+        <f>K6-N6</f>
+        <v>-42920.049999999988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>20180122</v>
+      </c>
+      <c r="B7">
+        <v>37062.120000000003</v>
+      </c>
+      <c r="C7">
+        <v>4947.2299999999996</v>
+      </c>
+      <c r="D7">
+        <v>4471.7299999999996</v>
+      </c>
+      <c r="E7">
+        <v>872.27</v>
+      </c>
+      <c r="F7">
+        <v>50.54</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6800</v>
+      </c>
+      <c r="I7">
+        <f>B7+C7+D7+E7+F7+G7+H7</f>
+        <v>54203.89</v>
+      </c>
+      <c r="J7">
+        <v>36037.03</v>
+      </c>
+      <c r="K7">
+        <f>I7+J7</f>
+        <v>90240.92</v>
+      </c>
+      <c r="L7">
+        <v>114400.08</v>
+      </c>
+      <c r="M7">
+        <v>19176.509999999998</v>
+      </c>
+      <c r="N7">
+        <f>L7+M7</f>
+        <v>133576.59</v>
+      </c>
+      <c r="O7">
+        <f>K7-N7</f>
+        <v>-43335.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>20180123</v>
+      </c>
+      <c r="B8">
+        <v>37066.21</v>
+      </c>
+      <c r="C8">
+        <v>5394.23</v>
+      </c>
+      <c r="D8">
+        <v>4472.22</v>
+      </c>
+      <c r="E8">
+        <v>872.27</v>
+      </c>
+      <c r="F8">
+        <v>50.54</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6800</v>
+      </c>
+      <c r="I8">
+        <f>B8+C8+D8+E8+F8+G8+H8</f>
+        <v>54655.47</v>
+      </c>
+      <c r="J8">
+        <v>36016.730000000003</v>
+      </c>
+      <c r="K8">
+        <f>I8+J8</f>
+        <v>90672.200000000012</v>
+      </c>
+      <c r="L8">
+        <v>114400.08</v>
+      </c>
+      <c r="M8">
+        <v>19957.509999999998</v>
+      </c>
+      <c r="N8">
+        <f>L8+M8</f>
+        <v>134357.59</v>
+      </c>
+      <c r="O8">
+        <f>K8-N8</f>
+        <v>-43685.389999999985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>20180124</v>
+      </c>
+      <c r="B9">
+        <v>37070.300000000003</v>
+      </c>
+      <c r="C9">
+        <v>5056.2299999999996</v>
+      </c>
+      <c r="D9">
+        <v>4472.7</v>
+      </c>
+      <c r="E9">
+        <v>1760.27</v>
+      </c>
+      <c r="F9">
+        <v>50.54</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1707</v>
+      </c>
+      <c r="I9">
+        <f>B9+C9+D9+E9+F9+G9+H9</f>
+        <v>50117.039999999994</v>
+      </c>
+      <c r="J9">
+        <v>36215.129999999997</v>
+      </c>
+      <c r="K9">
+        <f>I9+J9</f>
+        <v>86332.169999999984</v>
+      </c>
+      <c r="L9">
+        <v>114400.08</v>
+      </c>
+      <c r="M9">
+        <v>19832.509999999998</v>
+      </c>
+      <c r="N9">
+        <f>L9+M9</f>
+        <v>134232.59</v>
+      </c>
+      <c r="O9">
+        <f>K9-N9</f>
+        <v>-47900.420000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>20180125</v>
+      </c>
+      <c r="B10">
+        <v>37074.35</v>
+      </c>
+      <c r="C10">
+        <v>5033.7299999999996</v>
+      </c>
+      <c r="D10">
+        <v>4473.17</v>
+      </c>
+      <c r="E10">
+        <v>2560.27</v>
+      </c>
+      <c r="F10">
+        <v>50.54</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1687</v>
+      </c>
+      <c r="I10">
+        <f>B10+C10+D10+E10+F10+G10+H10</f>
+        <v>50879.06</v>
+      </c>
+      <c r="J10">
+        <v>36177.43</v>
+      </c>
+      <c r="K10">
+        <f>I10+J10</f>
+        <v>87056.489999999991</v>
+      </c>
+      <c r="L10">
+        <v>114400.08</v>
+      </c>
+      <c r="M10">
+        <v>19891.509999999998</v>
+      </c>
+      <c r="N10">
+        <f>L10+M10</f>
+        <v>134291.59</v>
+      </c>
+      <c r="O10">
+        <f>K10-N10</f>
+        <v>-47235.100000000006</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Total assets.xlsx
+++ b/做事 Doing/20180111 Total assets.xlsx
@@ -251,10 +251,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -281,16 +281,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20180125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$10</c:f>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>92607.2</c:v>
                 </c:pt>
@@ -317,6 +320,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>87056.489999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81294.319999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,10 +349,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -373,16 +379,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20180125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$10</c:f>
+              <c:f>Sheet1!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>133915.93</c:v>
                 </c:pt>
@@ -409,6 +418,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>134291.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134378.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,10 +449,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -467,16 +479,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20180125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$10</c:f>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>35903.53</c:v>
                 </c:pt>
@@ -503,30 +518,33 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>36177.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36070.629999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76900608"/>
-        <c:axId val="76931072"/>
+        <c:axId val="75143424"/>
+        <c:axId val="75165696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76900608"/>
+        <c:axId val="75143424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76931072"/>
+        <c:crossAx val="75165696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76931072"/>
+        <c:axId val="75165696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +552,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76900608"/>
+        <c:crossAx val="75143424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,7 +575,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -883,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -981,14 +999,14 @@
         <v>970</v>
       </c>
       <c r="I2">
-        <f>B2+C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I11" si="0">B2+C2+D2+E2+F2+G2+H2</f>
         <v>56703.67</v>
       </c>
       <c r="J2">
         <v>35903.53</v>
       </c>
       <c r="K2">
-        <f>I2+J2</f>
+        <f t="shared" ref="K2:K11" si="1">I2+J2</f>
         <v>92607.2</v>
       </c>
       <c r="L2">
@@ -998,11 +1016,11 @@
         <v>19515.849999999999</v>
       </c>
       <c r="N2">
-        <f>L2+M2</f>
+        <f t="shared" ref="N2:N10" si="2">L2+M2</f>
         <v>133915.93</v>
       </c>
       <c r="O2">
-        <f>K2-N2</f>
+        <f t="shared" ref="O2:O10" si="3">K2-N2</f>
         <v>-41308.729999999996</v>
       </c>
       <c r="P2" s="1"/>
@@ -1033,14 +1051,14 @@
         <v>970</v>
       </c>
       <c r="I3">
-        <f>B3+C3+D3+E3+F3+G3+H3</f>
+        <f t="shared" si="0"/>
         <v>56768.810000000005</v>
       </c>
       <c r="J3">
         <v>35935.33</v>
       </c>
       <c r="K3">
-        <f>I3+J3</f>
+        <f t="shared" si="1"/>
         <v>92704.140000000014</v>
       </c>
       <c r="L3">
@@ -1050,11 +1068,11 @@
         <v>19570.73</v>
       </c>
       <c r="N3">
-        <f>L3+M3</f>
+        <f t="shared" si="2"/>
         <v>133970.81</v>
       </c>
       <c r="O3">
-        <f>K3-N3</f>
+        <f t="shared" si="3"/>
         <v>-41266.669999999984</v>
       </c>
     </row>
@@ -1084,14 +1102,14 @@
         <v>970</v>
       </c>
       <c r="I4">
-        <f>B4+C4+D4+E4+F4+G4+H4</f>
+        <f t="shared" si="0"/>
         <v>55395.96</v>
       </c>
       <c r="J4">
         <v>36052.730000000003</v>
       </c>
       <c r="K4">
-        <f>I4+J4</f>
+        <f t="shared" si="1"/>
         <v>91448.69</v>
       </c>
       <c r="L4">
@@ -1101,11 +1119,11 @@
         <v>19568.509999999998</v>
       </c>
       <c r="N4">
-        <f>L4+M4</f>
+        <f t="shared" si="2"/>
         <v>133968.59</v>
       </c>
       <c r="O4">
-        <f>K4-N4</f>
+        <f t="shared" si="3"/>
         <v>-42519.899999999994</v>
       </c>
     </row>
@@ -1135,14 +1153,14 @@
         <v>970</v>
       </c>
       <c r="I5">
-        <f>B5+C5+D5+E5+F5+G5+H5</f>
+        <f t="shared" si="0"/>
         <v>53675.62999999999</v>
       </c>
       <c r="J5">
         <v>36052.730000000003</v>
       </c>
       <c r="K5">
-        <f>I5+J5</f>
+        <f t="shared" si="1"/>
         <v>89728.359999999986</v>
       </c>
       <c r="L5">
@@ -1152,11 +1170,11 @@
         <v>19061.009999999998</v>
       </c>
       <c r="N5">
-        <f>L5+M5</f>
+        <f t="shared" si="2"/>
         <v>133461.09</v>
       </c>
       <c r="O5">
-        <f>K5-N5</f>
+        <f t="shared" si="3"/>
         <v>-43732.73000000001</v>
       </c>
     </row>
@@ -1186,14 +1204,14 @@
         <v>9970</v>
       </c>
       <c r="I6">
-        <f>B6+C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" si="0"/>
         <v>54488.31</v>
       </c>
       <c r="J6">
         <v>36052.730000000003</v>
       </c>
       <c r="K6">
-        <f>I6+J6</f>
+        <f t="shared" si="1"/>
         <v>90541.040000000008</v>
       </c>
       <c r="L6">
@@ -1203,11 +1221,11 @@
         <v>19061.009999999998</v>
       </c>
       <c r="N6">
-        <f>L6+M6</f>
+        <f t="shared" si="2"/>
         <v>133461.09</v>
       </c>
       <c r="O6">
-        <f>K6-N6</f>
+        <f t="shared" si="3"/>
         <v>-42920.049999999988</v>
       </c>
     </row>
@@ -1237,14 +1255,14 @@
         <v>6800</v>
       </c>
       <c r="I7">
-        <f>B7+C7+D7+E7+F7+G7+H7</f>
+        <f t="shared" si="0"/>
         <v>54203.89</v>
       </c>
       <c r="J7">
         <v>36037.03</v>
       </c>
       <c r="K7">
-        <f>I7+J7</f>
+        <f t="shared" si="1"/>
         <v>90240.92</v>
       </c>
       <c r="L7">
@@ -1254,11 +1272,11 @@
         <v>19176.509999999998</v>
       </c>
       <c r="N7">
-        <f>L7+M7</f>
+        <f t="shared" si="2"/>
         <v>133576.59</v>
       </c>
       <c r="O7">
-        <f>K7-N7</f>
+        <f t="shared" si="3"/>
         <v>-43335.67</v>
       </c>
     </row>
@@ -1288,14 +1306,14 @@
         <v>6800</v>
       </c>
       <c r="I8">
-        <f>B8+C8+D8+E8+F8+G8+H8</f>
+        <f t="shared" si="0"/>
         <v>54655.47</v>
       </c>
       <c r="J8">
         <v>36016.730000000003</v>
       </c>
       <c r="K8">
-        <f>I8+J8</f>
+        <f t="shared" si="1"/>
         <v>90672.200000000012</v>
       </c>
       <c r="L8">
@@ -1305,11 +1323,11 @@
         <v>19957.509999999998</v>
       </c>
       <c r="N8">
-        <f>L8+M8</f>
+        <f t="shared" si="2"/>
         <v>134357.59</v>
       </c>
       <c r="O8">
-        <f>K8-N8</f>
+        <f t="shared" si="3"/>
         <v>-43685.389999999985</v>
       </c>
     </row>
@@ -1339,14 +1357,14 @@
         <v>1707</v>
       </c>
       <c r="I9">
-        <f>B9+C9+D9+E9+F9+G9+H9</f>
+        <f t="shared" si="0"/>
         <v>50117.039999999994</v>
       </c>
       <c r="J9">
         <v>36215.129999999997</v>
       </c>
       <c r="K9">
-        <f>I9+J9</f>
+        <f t="shared" si="1"/>
         <v>86332.169999999984</v>
       </c>
       <c r="L9">
@@ -1356,11 +1374,11 @@
         <v>19832.509999999998</v>
       </c>
       <c r="N9">
-        <f>L9+M9</f>
+        <f t="shared" si="2"/>
         <v>134232.59</v>
       </c>
       <c r="O9">
-        <f>K9-N9</f>
+        <f t="shared" si="3"/>
         <v>-47900.420000000013</v>
       </c>
     </row>
@@ -1390,14 +1408,14 @@
         <v>1687</v>
       </c>
       <c r="I10">
-        <f>B10+C10+D10+E10+F10+G10+H10</f>
+        <f t="shared" si="0"/>
         <v>50879.06</v>
       </c>
       <c r="J10">
         <v>36177.43</v>
       </c>
       <c r="K10">
-        <f>I10+J10</f>
+        <f t="shared" si="1"/>
         <v>87056.489999999991</v>
       </c>
       <c r="L10">
@@ -1407,12 +1425,63 @@
         <v>19891.509999999998</v>
       </c>
       <c r="N10">
-        <f>L10+M10</f>
+        <f t="shared" si="2"/>
         <v>134291.59</v>
       </c>
       <c r="O10">
-        <f>K10-N10</f>
+        <f t="shared" si="3"/>
         <v>-47235.100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>20180126</v>
+      </c>
+      <c r="B11">
+        <v>35043.769999999997</v>
+      </c>
+      <c r="C11">
+        <v>808.47</v>
+      </c>
+      <c r="D11">
+        <v>4473.6400000000003</v>
+      </c>
+      <c r="E11">
+        <v>3160.27</v>
+      </c>
+      <c r="F11">
+        <v>50.54</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1687</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>45223.689999999995</v>
+      </c>
+      <c r="J11">
+        <v>36070.629999999997</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>81294.319999999992</v>
+      </c>
+      <c r="L11">
+        <v>114400.08</v>
+      </c>
+      <c r="M11">
+        <v>19978.61</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11" si="4">L11+M11</f>
+        <v>134378.69</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11" si="5">K11-N11</f>
+        <v>-53084.37000000001</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Total assets.xlsx
+++ b/做事 Doing/20180111 Total assets.xlsx
@@ -251,10 +251,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -284,16 +284,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20180126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:f>Sheet1!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>92607.2</c:v>
                 </c:pt>
@@ -323,6 +329,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>81294.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87591.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90924.319999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,10 +361,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -382,16 +394,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20180126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$11</c:f>
+              <c:f>Sheet1!$N$2:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>133915.93</c:v>
                 </c:pt>
@@ -420,6 +438,12 @@
                   <c:v>134291.59</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>134378.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134378.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>134378.69</c:v>
                 </c:pt>
               </c:numCache>
@@ -449,10 +473,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -482,16 +506,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20180126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:f>Sheet1!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>35903.53</c:v>
                 </c:pt>
@@ -520,31 +550,142 @@
                   <c:v>36177.43</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>36070.629999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36070.629999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>36070.629999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75143424"/>
-        <c:axId val="75165696"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total amount in hand手头资金总额</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20180117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20180118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20180119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20180120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20180121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20180122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20180123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20180124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20180125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20180126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20180127</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20180128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56703.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56768.810000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55395.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53675.62999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54488.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54203.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54655.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50117.039999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50879.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45223.689999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51521.159999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54853.689999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75069696"/>
+        <c:axId val="75100160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75143424"/>
+        <c:axId val="75069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75165696"/>
+        <c:crossAx val="75100160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75165696"/>
+        <c:axId val="75100160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +693,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75143424"/>
+        <c:crossAx val="75069696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,7 +716,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -901,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -999,14 +1140,14 @@
         <v>970</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I11" si="0">B2+C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I13" si="0">B2+C2+D2+E2+F2+G2+H2</f>
         <v>56703.67</v>
       </c>
       <c r="J2">
         <v>35903.53</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K11" si="1">I2+J2</f>
+        <f t="shared" ref="K2:K13" si="1">I2+J2</f>
         <v>92607.2</v>
       </c>
       <c r="L2">
@@ -1476,12 +1617,114 @@
         <v>19978.61</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11" si="4">L11+M11</f>
+        <f t="shared" ref="N11:N13" si="4">L11+M11</f>
         <v>134378.69</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11" si="5">K11-N11</f>
+        <f t="shared" ref="O11:O13" si="5">K11-N11</f>
         <v>-53084.37000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>20180127</v>
+      </c>
+      <c r="B12">
+        <v>35051.89</v>
+      </c>
+      <c r="C12">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D12">
+        <v>8162.99</v>
+      </c>
+      <c r="E12">
+        <v>6760.27</v>
+      </c>
+      <c r="F12">
+        <v>50.54</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1487</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>51521.159999999996</v>
+      </c>
+      <c r="J12">
+        <v>36070.629999999997</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>87591.79</v>
+      </c>
+      <c r="L12">
+        <v>114400.08</v>
+      </c>
+      <c r="M12">
+        <v>19978.61</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>134378.69</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>-46786.900000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>20180128</v>
+      </c>
+      <c r="B13">
+        <v>35055.949999999997</v>
+      </c>
+      <c r="C13">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D13">
+        <v>8163.46</v>
+      </c>
+      <c r="E13">
+        <v>7710.27</v>
+      </c>
+      <c r="F13">
+        <v>50.54</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3865</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>54853.689999999995</v>
+      </c>
+      <c r="J13">
+        <v>36070.629999999997</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>90924.319999999992</v>
+      </c>
+      <c r="L13">
+        <v>114400.08</v>
+      </c>
+      <c r="M13">
+        <v>19978.61</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>134378.69</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>-43454.37000000001</v>
       </c>
     </row>
   </sheetData>

--- a/做事 Doing/20180111 Total assets.xlsx
+++ b/做事 Doing/20180111 Total assets.xlsx
@@ -251,10 +251,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -290,16 +290,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20180128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20180129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$13</c:f>
+              <c:f>Sheet1!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>92607.2</c:v>
                 </c:pt>
@@ -335,6 +338,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>90924.319999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90459.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,10 +367,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -400,16 +406,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20180128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20180129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:f>Sheet1!$N$2:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>133915.93</c:v>
                 </c:pt>
@@ -445,6 +454,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>134378.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134050.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,10 +485,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -512,16 +524,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20180128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20180129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$13</c:f>
+              <c:f>Sheet1!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>35903.53</c:v>
                 </c:pt>
@@ -557,6 +572,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>36070.629999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36111.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,10 +596,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>20180117</c:v>
                 </c:pt>
@@ -617,16 +635,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20180128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20180129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:f>Sheet1!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>56703.67</c:v>
                 </c:pt>
@@ -662,30 +683,33 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>54853.689999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54347.159999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75069696"/>
-        <c:axId val="75100160"/>
+        <c:axId val="78859264"/>
+        <c:axId val="78873344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75069696"/>
+        <c:axId val="78859264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75100160"/>
+        <c:crossAx val="78873344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75100160"/>
+        <c:axId val="78873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +717,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75069696"/>
+        <c:crossAx val="78859264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,7 +740,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1042,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1140,14 +1164,14 @@
         <v>970</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I13" si="0">B2+C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I14" si="0">B2+C2+D2+E2+F2+G2+H2</f>
         <v>56703.67</v>
       </c>
       <c r="J2">
         <v>35903.53</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K13" si="1">I2+J2</f>
+        <f t="shared" ref="K2:K14" si="1">I2+J2</f>
         <v>92607.2</v>
       </c>
       <c r="L2">
@@ -1617,11 +1641,11 @@
         <v>19978.61</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N13" si="4">L11+M11</f>
+        <f t="shared" ref="N11:N14" si="4">L11+M11</f>
         <v>134378.69</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O13" si="5">K11-N11</f>
+        <f t="shared" ref="O11:O14" si="5">K11-N11</f>
         <v>-53084.37000000001</v>
       </c>
     </row>
@@ -1725,6 +1749,57 @@
       <c r="O13">
         <f t="shared" si="5"/>
         <v>-43454.37000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>20180129</v>
+      </c>
+      <c r="B14">
+        <v>35055.949999999997</v>
+      </c>
+      <c r="C14">
+        <v>2398.4699999999998</v>
+      </c>
+      <c r="D14">
+        <v>7666.93</v>
+      </c>
+      <c r="E14">
+        <v>7710.27</v>
+      </c>
+      <c r="F14">
+        <v>50.54</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1465</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>54347.159999999996</v>
+      </c>
+      <c r="J14">
+        <v>36111.93</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>90459.09</v>
+      </c>
+      <c r="L14">
+        <v>114400.08</v>
+      </c>
+      <c r="M14">
+        <v>19650.61</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>134050.69</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>-43591.600000000006</v>
       </c>
     </row>
   </sheetData>
